--- a/CoilDesign/AnalysisResults_Combined/New Microsoft Excel Worksheet (version 1) (version 1).xlsx
+++ b/CoilDesign/AnalysisResults_Combined/New Microsoft Excel Worksheet (version 1) (version 1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3D8D1C-DB3D-4C43-8A5D-FF53CA132913}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5CFD3C-AE9C-4EDD-AFDD-A7D757D801C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,8 +15,6 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -196,7 +194,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]ydisp!$C$5:$C$15</c:f>
+              <c:f>[1]ydisp!$C$109:$C$119</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -293,7 +291,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]ydisp!$C$5:$C$15</c:f>
+              <c:f>[1]ydisp!$C$109:$C$119</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -404,7 +402,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]ydisp!$C$5:$C$15</c:f>
+              <c:f>[1]ydisp!$C$109:$C$119</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -446,7 +444,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[5]ydisp!$Q$5:$Q$15</c:f>
+              <c:f>[3]ydisp!$Q$5:$Q$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -490,6 +488,115 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-7214-406A-80F1-5136664E6036}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Less (7) Ferrites</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]ydisp!$C$109:$C$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]ydisp!$Q$109:$Q$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.14988581070243362</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14917679876224232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1468913834529039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14313586624799995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13806825899900502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13157174314299394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12393170725674622</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11490311377239056</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10512810601228209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3983947384347399E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2286375099905718E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-799F-4A21-8B1A-36C929E9BB1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1155,7 +1262,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[5]ydisp!$Q$23:$Q$33</c:f>
+              <c:f>[3]ydisp!$Q$23:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1782,7 +1889,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[5]xdisp!$Q$5:$Q$12</c:f>
+              <c:f>[3]xdisp!$Q$5:$Q$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2404,7 +2511,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[5]xdisp!$Q$14:$Q$23</c:f>
+              <c:f>[3]xdisp!$Q$14:$Q$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5315,6 +5422,94 @@
             <v>8.3037539533121471E-2</v>
           </cell>
         </row>
+        <row r="109">
+          <cell r="C109">
+            <v>0</v>
+          </cell>
+          <cell r="Q109">
+            <v>0.14988581070243362</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="C110">
+            <v>5</v>
+          </cell>
+          <cell r="Q110">
+            <v>0.14917679876224232</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="C111">
+            <v>10</v>
+          </cell>
+          <cell r="Q111">
+            <v>0.1468913834529039</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="C112">
+            <v>15</v>
+          </cell>
+          <cell r="Q112">
+            <v>0.14313586624799995</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="C113">
+            <v>20</v>
+          </cell>
+          <cell r="Q113">
+            <v>0.13806825899900502</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="C114">
+            <v>25</v>
+          </cell>
+          <cell r="Q114">
+            <v>0.13157174314299394</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="C115">
+            <v>30</v>
+          </cell>
+          <cell r="Q115">
+            <v>0.12393170725674622</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="C116">
+            <v>35</v>
+          </cell>
+          <cell r="Q116">
+            <v>0.11490311377239056</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="C117">
+            <v>40</v>
+          </cell>
+          <cell r="Q117">
+            <v>0.10512810601228209</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="C118">
+            <v>45</v>
+          </cell>
+          <cell r="Q118">
+            <v>9.3983947384347399E-2</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="C119">
+            <v>50</v>
+          </cell>
+          <cell r="Q119">
+            <v>8.2286375099905718E-2</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="102">
@@ -5525,251 +5720,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ydisp"/>
-      <sheetName val="xdisp"/>
-      <sheetName val="Graphs"/>
-      <sheetName val="Results"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="Q5">
-            <v>0.11815615146884109</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="Q6">
-            <v>0.11753814067056287</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="Q7">
-            <v>0.11578797391764928</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="Q8">
-            <v>0.11287340388507752</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="Q9">
-            <v>0.10913323887196213</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="Q10">
-            <v>0.10433444018041572</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="Q11">
-            <v>9.8598830854784478E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="Q12">
-            <v>9.1966548796488606E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="Q13">
-            <v>8.4389159116631529E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="Q14">
-            <v>7.6375084970102106E-2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="Q15">
-            <v>6.7728314977002171E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="Q23">
-            <v>0.14814529832256509</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="Q24">
-            <v>0.14747317636945093</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="Q25">
-            <v>0.14530541256722646</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="Q26">
-            <v>0.14159950103288957</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="Q27">
-            <v>0.13656993436158851</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="Q28">
-            <v>0.13043454167279714</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="Q29">
-            <v>0.12280085291287242</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="Q30">
-            <v>0.11433386030467628</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="Q31">
-            <v>0.10452023094658705</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="Q32">
-            <v>9.3956836382152006E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="Q33">
-            <v>8.2460639629570232E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ydisp"/>
-      <sheetName val="xdisp"/>
-      <sheetName val="Graphs"/>
-      <sheetName val="Results"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="Q5">
-            <v>9.5842656005582075E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="Q5">
-            <v>0.14642142387845347</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="Q6">
-            <v>0.144604621253827</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="Q7">
-            <v>0.13856110901309285</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="Q8">
-            <v>0.13183067101591267</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="Q9">
-            <v>0.12578440668335134</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="Q10">
-            <v>0.12159408791547489</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="Q11">
-            <v>0.11895537182901422</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="Q12">
-            <v>0.11815615147897877</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="Q295">
-            <v>8.1501451489799551E-2</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="Q296">
-            <v>7.9926766009842734E-2</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="Q297">
-            <v>7.7706335751525801E-2</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="Q298">
-            <v>7.5343695685870307E-2</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="Q299">
-            <v>7.2917044948557844E-2</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="Q300">
-            <v>7.1200638736242688E-2</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="Q301">
-            <v>6.963697910551922E-2</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="Q302">
-            <v>6.8474223432841791E-2</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="Q303">
-            <v>6.7890225673853541E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
